--- a/price_list.xlsx
+++ b/price_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BUSINESS\MENZ\PORTFOLIO\imperia_updated\website_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A3E3FA-A695-4B10-A8F6-E0F2314C9816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6B273-DE7F-40F9-9B1B-62C9C223ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="262">
   <si>
     <t>Прайс Лист</t>
   </si>
@@ -716,9 +707,6 @@
     <t>Скумбрия 400-600 Global</t>
   </si>
   <si>
-    <t>4,30$</t>
-  </si>
-  <si>
     <t xml:space="preserve">Л с\с филе кусок </t>
   </si>
   <si>
@@ -779,12 +767,6 @@
     <t>Bepiliç Фарш</t>
   </si>
   <si>
-    <t>1,10$</t>
-  </si>
-  <si>
-    <t>2,10$</t>
-  </si>
-  <si>
     <t>Golden Max</t>
   </si>
   <si>
@@ -801,6 +783,39 @@
   </si>
   <si>
     <t>10кг</t>
+  </si>
+  <si>
+    <t>Адрес: Чиланзар - 17, Бунедкор проспект, Шох кучаси, 29 дом</t>
+  </si>
+  <si>
+    <t>Тел: +998 33 622-25-25</t>
+  </si>
+  <si>
+    <t>E-mail:  info@imperiasg.uz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голень </t>
+  </si>
+  <si>
+    <t>Курица</t>
+  </si>
+  <si>
+    <t>Говядина</t>
+  </si>
+  <si>
+    <t>Свежо-замороженная</t>
+  </si>
+  <si>
+    <t>Средства гигиены</t>
+  </si>
+  <si>
+    <t>Энергетики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мясо </t>
+  </si>
+  <si>
+    <t>По Курсу Р.Уз ЦБ 12 300</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,15 +847,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Century Schoolbook"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -912,13 +918,6 @@
       <name val="Century Schoolbook"/>
       <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Century Schoolbook"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1049,8 +1048,60 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,8 +1118,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1158,166 +1215,371 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -1338,6 +1600,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A465FE2-0DE7-425E-8247-449DB3C91C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="510987" y="421341"/>
+          <a:ext cx="2904565" cy="861497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1595,47 +1912,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="39.59765625" customWidth="1"/>
-    <col min="3" max="3" width="36.3984375" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" customWidth="1"/>
     <col min="70" max="70" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="57" t="s">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+    </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>8</v>
+      <c r="A7" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,20 +2000,22 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="92" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1676,221 +2025,231 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>157</v>
-      </c>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>104</v>
+      <c r="D16" s="10">
+        <f>2.3*12300</f>
+        <v>28289.999999999996</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>159</v>
-      </c>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="10">
+        <f>2.3*12300</f>
+        <v>28289.999999999996</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="10">
+        <f>2.05*12300</f>
+        <v>25214.999999999996</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>115</v>
+        <v>161</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="10">
+        <f>2.5*12300</f>
+        <v>30750</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>116</v>
+        <v>218</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:D28" si="0">2.5*12300</f>
+        <v>30750</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>113</v>
+        <v>218</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>30750</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>30750</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>30750</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>30750</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>30750</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>157</v>
@@ -1898,988 +2257,962 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>107</v>
+        <v>222</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>30750</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>157</v>
-      </c>
+    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>107</v>
+        <v>162</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="10">
+        <f>3.7*12300</f>
+        <v>45510</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="10">
+        <f>5.3*12300</f>
+        <v>65190</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="10">
+        <f>5.3*12300</f>
+        <v>65190</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="10">
+        <f>5*12300</f>
+        <v>61500</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="10">
+        <f>5*12300</f>
+        <v>61500</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="10">
+        <f>4.75*12300</f>
+        <v>58425</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="10">
+        <f>4.5*12300</f>
+        <v>55350</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="10">
+        <f>1.1*12300</f>
+        <v>13530.000000000002</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" ref="D41:D43" si="1">1.1*12300</f>
+        <v>13530.000000000002</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="1"/>
+        <v>13530.000000000002</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="1"/>
+        <v>13530.000000000002</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="12">
+        <v>68500</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="12">
+        <v>68500</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="12">
+        <v>68500</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="12">
+        <v>68500</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="12">
+        <v>13700</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="12">
+        <v>13700</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="12">
+        <v>13700</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>8</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="B61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="73"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f>+A36+1</f>
+      <c r="B64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f t="shared" ref="A38:A56" si="0">+A37+1</f>
+      <c r="B65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
+      <c r="B67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
+      <c r="B68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>9</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="18">
-        <v>72000</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" s="18">
-        <v>75000</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="55">
-        <v>100000</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="55">
-        <v>45000</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="55">
-        <v>65000</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="55">
-        <v>30000</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="55">
-        <v>30000</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="55">
-        <v>10000</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="55">
-        <v>100000</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="55">
-        <v>45000</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="B72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="B74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>2</v>
       </c>
-      <c r="B61" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>3</v>
       </c>
-      <c r="B62" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="B76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>4</v>
       </c>
-      <c r="B63" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="18">
-        <v>68500</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="18">
-        <v>68500</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>3</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="18">
-        <v>68500</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>4</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="18">
-        <v>68500</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="B77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>5</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="18">
-        <v>13700</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="B78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>6</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="18">
-        <v>13700</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="B79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="18">
-        <v>13700</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>3</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
-        <v>4</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>5</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>6</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" s="18">
-        <v>17500</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>7</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="18">
-        <v>17500</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>8</v>
-      </c>
       <c r="B80" s="1" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="18">
-        <v>17500</v>
+        <v>62</v>
+      </c>
+      <c r="D80" s="7">
+        <v>6000</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" s="18">
-        <v>17500</v>
+        <v>62</v>
+      </c>
+      <c r="D81" s="7">
+        <v>6000</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" s="18">
-        <v>17500</v>
+        <v>62</v>
+      </c>
+      <c r="D82" s="7">
+        <v>6000</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>11</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-    </row>
-    <row r="85" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="10">
+        <f>0.8*12300</f>
+        <v>9840</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" ref="D85:D93" si="2">0.8*12300</f>
+        <v>9840</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D86" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D87" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>147</v>
@@ -2887,16 +3220,17 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D88" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>147</v>
@@ -2904,16 +3238,17 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D89" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>147</v>
@@ -2921,16 +3256,17 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D90" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>147</v>
@@ -2938,16 +3274,17 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D91" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>147</v>
@@ -2955,16 +3292,17 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D92" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>147</v>
@@ -2972,59 +3310,60 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="13">
-        <v>8700</v>
+        <v>74</v>
+      </c>
+      <c r="D93" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>9</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="13">
-        <v>8700</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A94" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="13">
-        <v>12000</v>
+        <v>87</v>
+      </c>
+      <c r="D96" s="7">
+        <v>9000</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>147</v>
@@ -3032,16 +3371,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="13">
-        <v>12000</v>
+        <v>90</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4000</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>147</v>
@@ -3049,16 +3388,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" s="13">
-        <v>12000</v>
+        <v>91</v>
+      </c>
+      <c r="D98" s="7">
+        <v>6000</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>147</v>
@@ -3066,50 +3405,42 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="13">
-        <v>12000</v>
+        <v>92</v>
+      </c>
+      <c r="D99" s="7">
+        <v>15000</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="13">
-        <v>12000</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A100" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="61"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" s="13">
-        <v>12000</v>
+        <v>84</v>
+      </c>
+      <c r="D101" s="7">
+        <v>10000</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>147</v>
@@ -3117,647 +3448,682 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="13">
-        <v>12000</v>
+        <v>85</v>
+      </c>
+      <c r="D102" s="7">
+        <v>4500</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>8</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="13">
-        <v>12000</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A103" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" s="13">
-        <v>12000</v>
+        <v>89</v>
+      </c>
+      <c r="D104" s="8">
+        <v>8000</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A105" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="81"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="82"/>
+    </row>
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A106" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D107" s="13">
-        <v>6000</v>
+        <v>150</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="10">
+        <f>2.4*12300</f>
+        <v>29520</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>3</v>
+        <f>+A107+1</f>
+        <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" s="13">
-        <v>6000</v>
+        <v>224</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="10">
+        <f>4.3*12300</f>
+        <v>52890</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>4</v>
+        <f t="shared" ref="A109:A127" si="3">+A108+1</f>
+        <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" s="13">
-        <v>6000</v>
+        <v>153</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" s="10">
+        <f>4.2*12300</f>
+        <v>51660</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D110" s="13">
-        <v>6000</v>
+        <v>13</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="10">
+        <f>2.45*12300</f>
+        <v>30135.000000000004</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" s="13">
-        <v>6000</v>
+        <v>238</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="10">
+        <f>2.5*12300</f>
+        <v>30750</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="13">
-        <v>6000</v>
+        <v>14</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="10">
+        <f>2.45*12300</f>
+        <v>30135.000000000004</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113" s="13">
-        <v>6000</v>
+        <v>155</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="10">
+        <f>2*12300</f>
+        <v>24600</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" s="10">
+        <f>18*12300</f>
+        <v>221400</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="B115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="10">
+        <f>2.1*12300</f>
+        <v>25830</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>93</v>
+        <v>17</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" s="10">
+        <f>2.45*12300</f>
+        <v>30135.000000000004</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>93</v>
+        <v>156</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="10">
+        <f>2.3*12300</f>
+        <v>28289.999999999996</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" s="12">
+        <v>72000</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="12">
+        <v>75000</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>93</v>
+        <v>225</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" s="46">
+        <v>100000</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>93</v>
+        <v>227</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" s="46">
+        <v>45000</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>93</v>
+        <v>229</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="46">
+        <v>65000</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>93</v>
+        <v>231</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123" s="46">
+        <v>30000</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>93</v>
+        <v>232</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124" s="46">
+        <v>30000</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>93</v>
+        <v>234</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="46">
+        <v>10000</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="46">
+        <v>100000</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" s="13">
-        <v>6800</v>
+        <v>236</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" s="46">
+        <v>45000</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" s="13">
-        <v>9000</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A128" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="63"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="64"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D129" s="13">
-        <v>4000</v>
+        <v>94</v>
+      </c>
+      <c r="D129" s="10">
+        <f>9.5*12300</f>
+        <v>116850</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="13">
-        <v>6000</v>
+        <v>94</v>
+      </c>
+      <c r="D130" s="10">
+        <f>9.7*12300</f>
+        <v>119309.99999999999</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="13">
-        <v>15000</v>
+        <v>94</v>
+      </c>
+      <c r="D131" s="10">
+        <f t="shared" ref="D131:D132" si="4">9.7*12300</f>
+        <v>119309.99999999999</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="16">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="10">
+        <f t="shared" si="4"/>
+        <v>119309.99999999999</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" s="13">
-        <v>10000</v>
+        <v>94</v>
+      </c>
+      <c r="D133" s="10">
+        <f>9*12300</f>
+        <v>110700</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D134" s="13">
-        <v>4500</v>
+        <v>177</v>
+      </c>
+      <c r="D134" s="12">
+        <v>17500</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
-      <c r="B135" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>7</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D135" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" s="14">
-        <v>8000</v>
+        <v>177</v>
+      </c>
+      <c r="D136" s="12">
+        <v>17500</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="22">
-        <v>1</v>
+      <c r="A138" s="1">
+        <v>10</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D138" s="18">
-        <v>7300</v>
+        <v>175</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="12">
+        <v>17500</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" s="10">
+        <f>2*12300</f>
+        <v>24600</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A140" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="54"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="55"/>
+    </row>
+    <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A141" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="61"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="15">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D139" s="18">
-        <v>7300</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>3</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D140" s="18">
-        <v>6900</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>4</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D141" s="18">
-        <v>6900</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>5</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D142" s="18">
+      <c r="D142" s="12">
         <v>7300</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -3766,15 +4132,15 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C143" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="12">
         <v>7300</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -3783,15 +4149,15 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C144" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="12">
         <v>6900</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -3800,42 +4166,50 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C145" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="12">
         <v>6900</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
-      <c r="B146" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>5</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D146" s="12">
+        <v>7300</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D147" s="18">
-        <v>2300</v>
+        <v>129</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D147" s="12">
+        <v>7300</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>146</v>
@@ -3843,16 +4217,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D148" s="18">
-        <v>2300</v>
+        <v>130</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D148" s="12">
+        <v>6900</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>146</v>
@@ -3860,49 +4234,41 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D149" s="18">
-        <v>2300</v>
+        <v>131</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D149" s="12">
+        <v>6900</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>4</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D150" s="18">
-        <v>2300</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>146</v>
-      </c>
+    <row r="150" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A150" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="12">
         <v>2300</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -3911,15 +4277,15 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C152" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="12">
         <v>2300</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -3928,15 +4294,15 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C153" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="12">
         <v>2300</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -3945,15 +4311,15 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C154" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="12">
         <v>2300</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -3962,15 +4328,15 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C155" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="12">
         <v>2300</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -3979,15 +4345,15 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C156" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="12">
         <v>2300</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -3996,110 +4362,110 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C157" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D157" s="18">
+      <c r="D157" s="12">
         <v>2300</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>8</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D158" s="12">
+        <v>2300</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D159" s="18">
-        <v>19000</v>
+        <v>140</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" s="12">
+        <v>2300</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D160" s="18">
-        <v>26500</v>
+        <v>141</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D160" s="12">
+        <v>2300</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D161" s="18">
-        <v>32200</v>
+        <v>142</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D161" s="12">
+        <v>2300</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>4</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D162" s="18">
-        <v>31500</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="54"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="55"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D163" s="18">
-        <v>27500</v>
+        <v>206</v>
+      </c>
+      <c r="D163" s="12">
+        <v>19000</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>207</v>
@@ -4107,16 +4473,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D164" s="18">
-        <v>27500</v>
+        <v>205</v>
+      </c>
+      <c r="D164" s="12">
+        <v>26500</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>207</v>
@@ -4124,16 +4490,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D165" s="18">
-        <v>16000</v>
+        <v>199</v>
+      </c>
+      <c r="D165" s="12">
+        <v>32200</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>207</v>
@@ -4141,16 +4507,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D166" s="18">
-        <v>21500</v>
+      <c r="D166" s="12">
+        <v>31500</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>207</v>
@@ -4158,16 +4524,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D167" s="18">
-        <v>14500</v>
+        <v>199</v>
+      </c>
+      <c r="D167" s="12">
+        <v>27500</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>207</v>
@@ -4175,16 +4541,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D168" s="18">
-        <v>20000</v>
+        <v>199</v>
+      </c>
+      <c r="D168" s="12">
+        <v>27500</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>207</v>
@@ -4192,16 +4558,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D169" s="18">
-        <v>18000</v>
+        <v>204</v>
+      </c>
+      <c r="D169" s="12">
+        <v>16000</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>207</v>
@@ -4209,16 +4575,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D170" s="18">
-        <v>9800</v>
+        <v>199</v>
+      </c>
+      <c r="D170" s="12">
+        <v>21500</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>207</v>
@@ -4226,16 +4592,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D171" s="18">
-        <v>19600</v>
+        <v>203</v>
+      </c>
+      <c r="D171" s="12">
+        <v>14500</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>207</v>
@@ -4243,16 +4609,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D172" s="18">
-        <v>9800</v>
+        <v>202</v>
+      </c>
+      <c r="D172" s="12">
+        <v>20000</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>207</v>
@@ -4260,16 +4626,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D173" s="18">
-        <v>19600</v>
+        <v>201</v>
+      </c>
+      <c r="D173" s="12">
+        <v>18000</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>207</v>
@@ -4277,16 +4643,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D174" s="18">
-        <v>10600</v>
+        <v>200</v>
+      </c>
+      <c r="D174" s="12">
+        <v>9800</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>207</v>
@@ -4294,16 +4660,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D175" s="18">
-        <v>21200</v>
+        <v>199</v>
+      </c>
+      <c r="D175" s="12">
+        <v>19600</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>207</v>
@@ -4311,16 +4677,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D176" s="18">
-        <v>11200</v>
+        <v>200</v>
+      </c>
+      <c r="D176" s="12">
+        <v>9800</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>207</v>
@@ -4328,16 +4694,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D177" s="18">
-        <v>22400</v>
+        <v>199</v>
+      </c>
+      <c r="D177" s="12">
+        <v>19600</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>207</v>
@@ -4345,16 +4711,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D178" s="18">
-        <v>12300</v>
+      <c r="D178" s="12">
+        <v>10600</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>207</v>
@@ -4362,16 +4728,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D179" s="18">
-        <v>24600</v>
+      <c r="D179" s="12">
+        <v>21200</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>207</v>
@@ -4379,16 +4745,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D180" s="55">
-        <v>5500</v>
+        <v>198</v>
+      </c>
+      <c r="D180" s="12">
+        <v>11200</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>207</v>
@@ -4396,29 +4762,124 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D181" s="55">
-        <v>5500</v>
+        <v>197</v>
+      </c>
+      <c r="D181" s="12">
+        <v>22400</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>207</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>20</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" s="12">
+        <v>12300</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>21</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D183" s="12">
+        <v>24600</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>22</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D184" s="46">
+        <v>5500</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>23</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D185" s="46">
+        <v>5500</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="28">
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A2:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A106:E106"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4432,2576 +4893,2576 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="52.19921875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="52.19921875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.3984375" style="26" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="57" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="45" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="35">
         <v>1</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="35">
         <v>1</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="35">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="35">
         <v>3</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="35">
         <v>4</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="35">
         <v>5</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="35">
         <v>6</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="35">
         <v>1</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+      <c r="A27" s="35">
         <v>2</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="35">
         <v>3</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="35">
         <v>4</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="35">
         <v>5</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="42">
+      <c r="A31" s="35">
         <v>6</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="35">
         <v>7</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+      <c r="A33" s="35">
         <v>8</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42">
+      <c r="A35" s="35">
         <v>1</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="35">
         <v>2</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="42">
+      <c r="A37" s="35">
         <v>3</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="35">
         <v>4</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="35">
         <v>5</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="35">
         <v>6</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="42">
+      <c r="A41" s="35">
         <v>7</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="35">
         <v>8</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="19" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="42">
+      <c r="A43" s="35">
         <v>9</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="35">
         <v>10</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="42">
+      <c r="A45" s="35">
         <v>11</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="35">
         <v>12</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="42">
+      <c r="A47" s="35">
         <v>13</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="31">
         <v>72000</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="35">
         <v>14</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="31">
         <v>75000</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="48" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="35">
         <v>1</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26" t="s">
+      <c r="D52" s="18"/>
+      <c r="E52" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="42">
+      <c r="A53" s="35">
         <v>2</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
-      <c r="B54" s="48" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="42">
+      <c r="A55" s="35">
         <v>1</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="31">
         <v>68500</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="21"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="35">
         <v>2</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="31">
         <v>68500</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F56" s="21"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="42">
+      <c r="A57" s="35">
         <v>3</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="31">
         <v>68500</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F57" s="21"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="35">
         <v>4</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="31">
         <v>68500</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F58" s="21"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="42">
+      <c r="A59" s="35">
         <v>5</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="31">
         <v>13700</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="21"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="35">
         <v>6</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60" s="31">
         <v>13700</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="21"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="42">
+      <c r="A61" s="35">
         <v>7</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="31">
         <v>13700</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="21"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="42">
+      <c r="A63" s="35">
         <v>1</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="35">
         <v>2</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="42">
+      <c r="A65" s="35">
         <v>3</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="46">
+      <c r="A66" s="39">
         <v>4</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="42">
+      <c r="A67" s="35">
         <v>5</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="35">
         <v>6</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="31">
         <v>17500</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="42">
+      <c r="A69" s="35">
         <v>7</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="31">
         <v>17500</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
+      <c r="A70" s="35">
         <v>8</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D70" s="31">
         <v>17500</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="42">
+      <c r="A71" s="35">
         <v>9</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="31">
         <v>17500</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="35">
         <v>10</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="31">
         <v>17500</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="42">
+      <c r="A73" s="35">
         <v>11</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
-      <c r="B74" s="48" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="42">
+      <c r="A75" s="35">
         <v>1</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="31">
         <v>8700</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42">
+      <c r="A76" s="35">
         <v>2</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="38">
+      <c r="D76" s="31">
         <v>8700</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="42">
+      <c r="A77" s="35">
         <v>3</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="31">
         <v>8700</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="42">
+      <c r="A78" s="35">
         <v>4</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="31">
         <v>8700</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="42">
+      <c r="A79" s="35">
         <v>5</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="38">
+      <c r="D79" s="31">
         <v>8700</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="42">
+      <c r="A80" s="35">
         <v>6</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="31">
         <v>8700</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="42">
+      <c r="A81" s="35">
         <v>7</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="31">
         <v>8700</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="42">
+      <c r="A82" s="35">
         <v>8</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="31">
         <v>8700</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="42">
+      <c r="A83" s="35">
         <v>9</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="38">
+      <c r="D83" s="31">
         <v>8700</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
-      <c r="B84" s="48" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="42">
+      <c r="A85" s="35">
         <v>1</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="38">
+      <c r="D85" s="31">
         <v>12000</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="42">
+      <c r="A86" s="35">
         <v>2</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="31">
         <v>12000</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="42">
+      <c r="A87" s="35">
         <v>3</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="31">
         <v>12000</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="42">
+      <c r="A88" s="35">
         <v>4</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="31">
         <v>12000</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="42">
+      <c r="A89" s="35">
         <v>5</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="31">
         <v>12000</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="42">
+      <c r="A90" s="35">
         <v>6</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="38">
+      <c r="D90" s="31">
         <v>12000</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="42">
+      <c r="A91" s="35">
         <v>7</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="38">
+      <c r="D91" s="31">
         <v>12000</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="42">
+      <c r="A92" s="35">
         <v>8</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="31">
         <v>12000</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="42">
+      <c r="A93" s="35">
         <v>9</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="38">
+      <c r="D93" s="31">
         <v>12000</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
-      <c r="B94" s="48" t="s">
+      <c r="A94" s="38"/>
+      <c r="B94" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="42">
+      <c r="A95" s="35">
         <v>1</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="38">
+      <c r="D95" s="31">
         <v>6000</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="42">
+      <c r="A96" s="35">
         <v>2</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="38">
+      <c r="D96" s="31">
         <v>6000</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="42">
+      <c r="A97" s="35">
         <v>3</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="38">
+      <c r="D97" s="31">
         <v>6000</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="42">
+      <c r="A98" s="35">
         <v>4</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="38">
+      <c r="D98" s="31">
         <v>6000</v>
       </c>
-      <c r="E98" s="26" t="s">
+      <c r="E98" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="42">
+      <c r="A99" s="35">
         <v>5</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D99" s="38">
+      <c r="D99" s="31">
         <v>6000</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="42">
+      <c r="A100" s="35">
         <v>6</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="38">
+      <c r="D100" s="31">
         <v>6000</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="42">
+      <c r="A101" s="35">
         <v>7</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="38">
+      <c r="D101" s="31">
         <v>6000</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="42">
+      <c r="A102" s="35">
         <v>8</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="38">
+      <c r="D102" s="31">
         <v>6000</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="42">
+      <c r="A103" s="35">
         <v>9</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="38">
+      <c r="D103" s="31">
         <v>6000</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="45"/>
-      <c r="B104" s="48" t="s">
+      <c r="A104" s="38"/>
+      <c r="B104" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="42">
+      <c r="A105" s="35">
         <v>1</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="42">
+      <c r="A106" s="35">
         <v>2</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="42">
+      <c r="A107" s="35">
         <v>3</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="42">
+      <c r="A108" s="35">
         <v>4</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="42">
+      <c r="A109" s="35">
         <v>5</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="42">
+      <c r="A110" s="35">
         <v>6</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="42">
+      <c r="A111" s="35">
         <v>7</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="42">
+      <c r="A112" s="35">
         <v>8</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="42">
+      <c r="A113" s="35">
         <v>9</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="42">
+      <c r="A114" s="35">
         <v>10</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A115" s="45"/>
-      <c r="B115" s="48" t="s">
+      <c r="A115" s="38"/>
+      <c r="B115" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="42">
+      <c r="A116" s="35">
         <v>1</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D116" s="38">
+      <c r="D116" s="31">
         <v>6800</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="42">
+      <c r="A117" s="35">
         <v>2</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="38">
+      <c r="D117" s="31">
         <v>9000</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="42">
+      <c r="A118" s="35">
         <v>3</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="38">
+      <c r="D118" s="31">
         <v>4000</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="42">
+      <c r="A119" s="35">
         <v>4</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D119" s="38">
+      <c r="D119" s="31">
         <v>6000</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="42">
+      <c r="A120" s="35">
         <v>5</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D120" s="38">
+      <c r="D120" s="31">
         <v>15000</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A121" s="45"/>
-      <c r="B121" s="48" t="s">
+      <c r="A121" s="38"/>
+      <c r="B121" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="42">
+      <c r="A122" s="35">
         <v>1</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D122" s="38">
+      <c r="D122" s="31">
         <v>10000</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="42">
+      <c r="A123" s="35">
         <v>2</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D123" s="38">
+      <c r="D123" s="31">
         <v>4500</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="E123" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A124" s="45"/>
-      <c r="B124" s="48" t="s">
+      <c r="A124" s="38"/>
+      <c r="B124" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="42">
+      <c r="A125" s="35">
         <v>1</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D125" s="38">
+      <c r="D125" s="31">
         <v>8000</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A126" s="45"/>
-      <c r="B126" s="48" t="s">
+      <c r="A126" s="38"/>
+      <c r="B126" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="46">
+      <c r="A127" s="39">
         <v>1</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D127" s="38">
+      <c r="D127" s="31">
         <v>7300</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="42">
+      <c r="A128" s="35">
         <v>2</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D128" s="38">
+      <c r="D128" s="31">
         <v>7300</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="42">
+      <c r="A129" s="35">
         <v>3</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D129" s="38">
+      <c r="D129" s="31">
         <v>6900</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="42">
+      <c r="A130" s="35">
         <v>4</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D130" s="38">
+      <c r="D130" s="31">
         <v>6900</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="42">
+      <c r="A131" s="35">
         <v>5</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D131" s="38">
+      <c r="D131" s="31">
         <v>7300</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="42">
+      <c r="A132" s="35">
         <v>6</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D132" s="38">
+      <c r="D132" s="31">
         <v>7300</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="42">
+      <c r="A133" s="35">
         <v>7</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D133" s="38">
+      <c r="D133" s="31">
         <v>6900</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="42">
+      <c r="A134" s="35">
         <v>8</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D134" s="38">
+      <c r="D134" s="31">
         <v>6900</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A135" s="45"/>
-      <c r="B135" s="48" t="s">
+      <c r="A135" s="38"/>
+      <c r="B135" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="42">
+      <c r="A136" s="35">
         <v>1</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D136" s="38">
+      <c r="D136" s="31">
         <v>2300</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="42">
+      <c r="A137" s="35">
         <v>2</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D137" s="38">
+      <c r="D137" s="31">
         <v>2300</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="42">
+      <c r="A138" s="35">
         <v>3</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D138" s="38">
+      <c r="D138" s="31">
         <v>2300</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="42">
+      <c r="A139" s="35">
         <v>4</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D139" s="38">
+      <c r="D139" s="31">
         <v>2300</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="E139" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="42">
+      <c r="A140" s="35">
         <v>5</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D140" s="38">
+      <c r="D140" s="31">
         <v>2300</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="42">
+      <c r="A141" s="35">
         <v>6</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D141" s="38">
+      <c r="D141" s="31">
         <v>2300</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="42">
+      <c r="A142" s="35">
         <v>7</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D142" s="38">
+      <c r="D142" s="31">
         <v>2300</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="42">
+      <c r="A143" s="35">
         <v>8</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D143" s="38">
+      <c r="D143" s="31">
         <v>2300</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="42">
+      <c r="A144" s="35">
         <v>9</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D144" s="38">
+      <c r="D144" s="31">
         <v>2300</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="42">
+      <c r="A145" s="35">
         <v>10</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D145" s="38">
+      <c r="D145" s="31">
         <v>2300</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="42">
+      <c r="A146" s="35">
         <v>11</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D146" s="38">
+      <c r="D146" s="31">
         <v>2300</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
-      <c r="B147" s="48" t="s">
+      <c r="A147" s="37"/>
+      <c r="B147" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="42">
+      <c r="A148" s="35">
         <v>1</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D148" s="38">
+      <c r="D148" s="31">
         <v>19000</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="42">
+      <c r="A149" s="35">
         <v>2</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D149" s="38">
+      <c r="D149" s="31">
         <v>26500</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="42">
+      <c r="A150" s="35">
         <v>3</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D150" s="38">
+      <c r="D150" s="31">
         <v>32200</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="42">
+      <c r="A151" s="35">
         <v>4</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D151" s="38">
+      <c r="D151" s="31">
         <v>31500</v>
       </c>
-      <c r="E151" s="26" t="s">
+      <c r="E151" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="42">
+      <c r="A152" s="35">
         <v>5</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D152" s="38">
+      <c r="D152" s="31">
         <v>27500</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="42">
+      <c r="A153" s="35">
         <v>6</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D153" s="38">
+      <c r="D153" s="31">
         <v>27500</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="42">
+      <c r="A154" s="35">
         <v>7</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D154" s="38">
+      <c r="D154" s="31">
         <v>16000</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="42">
+      <c r="A155" s="35">
         <v>8</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D155" s="38">
+      <c r="D155" s="31">
         <v>21500</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="E155" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="42">
+      <c r="A156" s="35">
         <v>9</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="C156" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D156" s="38">
+      <c r="D156" s="31">
         <v>14500</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="42">
+      <c r="A157" s="35">
         <v>10</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D157" s="38">
+      <c r="D157" s="31">
         <v>20000</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="42">
+      <c r="A158" s="35">
         <v>11</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C158" s="26" t="s">
+      <c r="C158" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D158" s="38">
+      <c r="D158" s="31">
         <v>18000</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="42">
+      <c r="A159" s="35">
         <v>12</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D159" s="38">
+      <c r="D159" s="31">
         <v>9800</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="42">
+      <c r="A160" s="35">
         <v>13</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D160" s="38">
+      <c r="D160" s="31">
         <v>19600</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="42">
+      <c r="A161" s="35">
         <v>14</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D161" s="38">
+      <c r="D161" s="31">
         <v>9800</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="42">
+      <c r="A162" s="35">
         <v>15</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D162" s="38">
+      <c r="D162" s="31">
         <v>19600</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="42">
+      <c r="A163" s="35">
         <v>16</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D163" s="38">
+      <c r="D163" s="31">
         <v>10600</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="42">
+      <c r="A164" s="35">
         <v>17</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D164" s="38">
+      <c r="D164" s="31">
         <v>21200</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="42">
+      <c r="A165" s="35">
         <v>18</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D165" s="38">
+      <c r="D165" s="31">
         <v>11200</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="42">
+      <c r="A166" s="35">
         <v>19</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D166" s="38">
+      <c r="D166" s="31">
         <v>22400</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="42">
+      <c r="A167" s="35">
         <v>20</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D167" s="38">
+      <c r="D167" s="31">
         <v>12300</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="42">
+      <c r="A168" s="35">
         <v>21</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D168" s="38">
+      <c r="D168" s="31">
         <v>24600</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="19" t="s">
         <v>207</v>
       </c>
     </row>

--- a/price_list.xlsx
+++ b/price_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BUSINESS\MENZ\PORTFOLIO\imperia_updated\website_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6B273-DE7F-40F9-9B1B-62C9C223ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB2236D-2D26-4FC8-9FFA-0D8B7BE6AFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="268">
   <si>
     <t>Прайс Лист</t>
   </si>
@@ -816,6 +816,24 @@
   </si>
   <si>
     <t>По Курсу Р.Уз ЦБ 12 300</t>
+  </si>
+  <si>
+    <t>Прокладки</t>
+  </si>
+  <si>
+    <t>Зубные щетки</t>
+  </si>
+  <si>
+    <t>Сахар</t>
+  </si>
+  <si>
+    <t>1 кг</t>
+  </si>
+  <si>
+    <t>Россия, Краснодар</t>
+  </si>
+  <si>
+    <t>Макароны</t>
   </si>
 </sst>
 </file>
@@ -1453,33 +1471,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1489,13 +1481,58 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,52 +1571,33 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -1912,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1929,55 +1947,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="48" t="s">
         <v>252</v>
       </c>
@@ -2000,20 +2018,20 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="50" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2042,22 +2060,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2096,13 +2114,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2123,13 +2141,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2274,13 +2292,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2301,22 +2319,22 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2427,13 +2445,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2508,13 +2526,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="76"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2643,80 +2661,75 @@
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
+      <c r="A52" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="46">
+        <v>5500</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="7">
-        <v>8700</v>
+        <v>247</v>
+      </c>
+      <c r="D54" s="46">
+        <v>5500</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="7">
-        <v>8700</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>3</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="7">
-        <v>8700</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
@@ -2728,12 +2741,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>60</v>
@@ -2747,10 +2760,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>60</v>
@@ -2764,10 +2777,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>60</v>
@@ -2781,10 +2794,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>60</v>
@@ -2798,10 +2811,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>60</v>
@@ -2813,27 +2826,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="73"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="7">
+        <v>8700</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="7">
-        <v>12000</v>
+        <v>8700</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>147</v>
@@ -2841,44 +2862,36 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="7">
-        <v>12000</v>
+        <v>8700</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>3</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="7">
-        <v>12000</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="66" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="80"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>61</v>
@@ -2892,10 +2905,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>61</v>
@@ -2909,10 +2922,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>61</v>
@@ -2926,10 +2939,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>61</v>
@@ -2943,10 +2956,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>61</v>
@@ -2960,10 +2973,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>61</v>
@@ -2975,27 +2988,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A73" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D74" s="7">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>147</v>
@@ -3003,44 +3024,36 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="7">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>3</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="7">
-        <v>6000</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="76" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A76" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="80"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>62</v>
@@ -3054,10 +3067,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>62</v>
@@ -3071,10 +3084,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>62</v>
@@ -3088,10 +3101,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>62</v>
@@ -3105,10 +3118,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>62</v>
@@ -3122,10 +3135,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>62</v>
@@ -3137,99 +3150,96 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A83" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="58"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A86" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="88"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="89"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D87" s="10">
         <f>0.8*12300</f>
         <v>9840</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="10">
-        <f t="shared" ref="D85:D93" si="2">0.8*12300</f>
-        <v>9840</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>3</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="10">
-        <f t="shared" si="2"/>
-        <v>9840</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>4</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D87" s="10">
-        <f t="shared" si="2"/>
-        <v>9840</v>
-      </c>
       <c r="E87" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D88:D96" si="2">0.8*12300</f>
         <v>9840</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -3238,10 +3248,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>74</v>
@@ -3256,10 +3266,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>74</v>
@@ -3274,10 +3284,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>74</v>
@@ -3292,10 +3302,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>74</v>
@@ -3310,10 +3320,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>74</v>
@@ -3326,27 +3336,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A94" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="61"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="7">
-        <v>6800</v>
+        <v>74</v>
+      </c>
+      <c r="D95" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>147</v>
@@ -3354,50 +3374,43 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" s="7">
-        <v>9000</v>
+        <v>74</v>
+      </c>
+      <c r="D96" s="10">
+        <f t="shared" si="2"/>
+        <v>9840</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>3</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="7">
-        <v>4000</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A97" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="53"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D98" s="7">
-        <v>6000</v>
+        <v>6800</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>147</v>
@@ -3405,42 +3418,50 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D99" s="7">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="61"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D101" s="7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>147</v>
@@ -3448,340 +3469,329 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D102" s="7">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A103" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="52"/>
+      <c r="A103" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" s="8">
-        <v>8000</v>
+        <v>84</v>
+      </c>
+      <c r="D104" s="7">
+        <v>10000</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" s="81"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="82"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="7">
+        <v>4500</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A106" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="52"/>
+      <c r="A106" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="8">
+        <v>8000</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A108" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="68"/>
+    </row>
+    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A109" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D110" s="10">
         <f>2.4*12300</f>
         <v>29520</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <f>+A107+1</f>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f>+A110+1</f>
         <v>2</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D111" s="10">
         <f>4.3*12300</f>
         <v>52890</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <f t="shared" ref="A109:A127" si="3">+A108+1</f>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f t="shared" ref="A112:A130" si="3">+A111+1</f>
         <v>3</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D112" s="10">
         <f>4.2*12300</f>
         <v>51660</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D110" s="10">
-        <f>2.45*12300</f>
-        <v>30135.000000000004</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D111" s="10">
-        <f>2.5*12300</f>
-        <v>30750</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D112" s="10">
-        <f>2.45*12300</f>
-        <v>30135.000000000004</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D113" s="10">
-        <f>2*12300</f>
-        <v>24600</v>
+        <f>2.45*12300</f>
+        <v>30135.000000000004</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D114" s="10">
-        <f>18*12300</f>
-        <v>221400</v>
+        <f>2.5*12300</f>
+        <v>30750</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D115" s="10">
-        <f>2.1*12300</f>
-        <v>25830</v>
+        <f>2.45*12300</f>
+        <v>30135.000000000004</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D116" s="10">
-        <f>2.45*12300</f>
-        <v>30135.000000000004</v>
+        <f>2*12300</f>
+        <v>24600</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D117" s="10">
-        <f>2.3*12300</f>
-        <v>28289.999999999996</v>
+        <f>18*12300</f>
+        <v>221400</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D118" s="12">
-        <v>72000</v>
+        <v>212</v>
+      </c>
+      <c r="D118" s="10">
+        <f>2.1*12300</f>
+        <v>25830</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D119" s="12">
-        <v>75000</v>
+        <v>249</v>
+      </c>
+      <c r="D119" s="10">
+        <f>2.45*12300</f>
+        <v>30135.000000000004</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D120" s="46">
-        <v>100000</v>
+        <v>209</v>
+      </c>
+      <c r="D120" s="10">
+        <f>2.3*12300</f>
+        <v>28289.999999999996</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D121" s="46">
-        <v>45000</v>
+        <v>214</v>
+      </c>
+      <c r="D121" s="12">
+        <v>72000</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>166</v>
@@ -3790,52 +3800,52 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D122" s="46">
-        <v>65000</v>
+        <v>208</v>
+      </c>
+      <c r="D122" s="12">
+        <v>75000</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D123" s="46">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D124" s="46">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>166</v>
@@ -3844,389 +3854,376 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="D125" s="46">
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D126" s="46">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D127" s="46">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A128" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B128" s="63"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="64"/>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D129" s="46">
+        <v>100000</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" s="46">
+        <v>45000</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A131" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="86"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>1</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D132" s="46">
+        <v>12500</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A133" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="92"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D134" s="10">
         <f>9.5*12300</f>
         <v>116850</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>2</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D135" s="10">
         <f>9.7*12300</f>
         <v>119309.99999999999</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>3</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="10">
-        <f t="shared" ref="D131:D132" si="4">9.7*12300</f>
+      <c r="D136" s="10">
+        <f t="shared" ref="D136:D137" si="4">9.7*12300</f>
         <v>119309.99999999999</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="16">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="16">
         <v>4</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D137" s="10">
         <f t="shared" si="4"/>
         <v>119309.99999999999</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>5</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D138" s="10">
         <f>9*12300</f>
         <v>110700</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>6</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" s="12">
-        <v>17500</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>7</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D135" s="12">
-        <v>17500</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>8</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" s="12">
-        <v>17500</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>9</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" s="12">
-        <v>17500</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>10</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D138" s="12">
-        <v>17500</v>
-      </c>
       <c r="E138" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>7</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="12">
+        <v>17500</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>11</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D144" s="10">
         <f>2*12300</f>
         <v>24600</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A140" s="53" t="s">
+    <row r="145" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A145" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="55"/>
-    </row>
-    <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A141" s="59" t="s">
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="86"/>
+    </row>
+    <row r="146" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A146" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="86"/>
+    </row>
+    <row r="147" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A147" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B141" s="60"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="61"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="15">
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="53"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="15">
         <v>1</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D142" s="12">
-        <v>7300</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>2</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D143" s="12">
-        <v>7300</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>3</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D144" s="12">
-        <v>6900</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>4</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D145" s="12">
-        <v>6900</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>5</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" s="12">
-        <v>7300</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>6</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D147" s="12">
-        <v>7300</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>7</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D148" s="12">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>146</v>
@@ -4234,42 +4231,50 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D149" s="12">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A150" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B150" s="51"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="52"/>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>3</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D150" s="12">
+        <v>6900</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D151" s="12">
-        <v>2300</v>
+        <v>6900</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>146</v>
@@ -4277,16 +4282,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D152" s="12">
-        <v>2300</v>
+        <v>7300</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>146</v>
@@ -4294,16 +4299,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D153" s="12">
-        <v>2300</v>
+        <v>7300</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>146</v>
@@ -4311,16 +4316,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D154" s="12">
-        <v>2300</v>
+        <v>6900</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>146</v>
@@ -4328,61 +4333,45 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D155" s="12">
-        <v>2300</v>
+        <v>6900</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>6</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D156" s="12">
-        <v>2300</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>7</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D157" s="12">
-        <v>2300</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>146</v>
-      </c>
+    <row r="156" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A156" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="86"/>
+    </row>
+    <row r="157" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A157" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="71"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>216</v>
@@ -4396,10 +4385,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>216</v>
@@ -4413,10 +4402,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>216</v>
@@ -4430,10 +4419,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>216</v>
@@ -4445,146 +4434,146 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162" s="54"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="55"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>5</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" s="12">
+        <v>2300</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>206</v>
+        <v>137</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D163" s="12">
-        <v>19000</v>
+        <v>2300</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D164" s="12">
-        <v>26500</v>
+        <v>2300</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>199</v>
+        <v>139</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D165" s="12">
-        <v>32200</v>
+        <v>2300</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>199</v>
+        <v>140</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D166" s="12">
-        <v>31500</v>
+        <v>2300</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D167" s="12">
-        <v>27500</v>
+        <v>2300</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>199</v>
+        <v>142</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D168" s="12">
-        <v>27500</v>
+        <v>2300</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>7</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D169" s="12">
-        <v>16000</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="85"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="86"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D170" s="12">
-        <v>21500</v>
+        <v>9800</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>207</v>
@@ -4592,16 +4581,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D171" s="12">
-        <v>14500</v>
+        <v>19600</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>207</v>
@@ -4609,16 +4598,17 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>10</v>
+        <f>A171+1</f>
+        <v>3</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D172" s="12">
-        <v>20000</v>
+        <v>9800</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>207</v>
@@ -4626,16 +4616,17 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>11</v>
+        <f t="shared" ref="A173:A190" si="5">A172+1</f>
+        <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D173" s="12">
-        <v>18000</v>
+        <v>19600</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>207</v>
@@ -4643,16 +4634,17 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D174" s="12">
-        <v>9800</v>
+        <v>10600</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>207</v>
@@ -4660,16 +4652,17 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D175" s="12">
-        <v>19600</v>
+        <v>21200</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>207</v>
@@ -4677,16 +4670,17 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D176" s="12">
-        <v>9800</v>
+        <v>11200</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>207</v>
@@ -4694,16 +4688,17 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D177" s="12">
-        <v>19600</v>
+        <v>22400</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>207</v>
@@ -4711,16 +4706,17 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D178" s="12">
-        <v>10600</v>
+        <v>12300</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>207</v>
@@ -4728,16 +4724,17 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D179" s="12">
-        <v>21200</v>
+        <v>24600</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>207</v>
@@ -4745,16 +4742,17 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D180" s="12">
-        <v>11200</v>
+        <v>19000</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>207</v>
@@ -4762,16 +4760,17 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D181" s="12">
-        <v>22400</v>
+        <v>26500</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>207</v>
@@ -4779,16 +4778,17 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D182" s="12">
-        <v>12300</v>
+        <v>16000</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>207</v>
@@ -4796,16 +4796,17 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D183" s="12">
-        <v>24600</v>
+        <v>21500</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>207</v>
@@ -4813,16 +4814,17 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D184" s="46">
-        <v>5500</v>
+        <v>203</v>
+      </c>
+      <c r="D184" s="12">
+        <v>14500</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>207</v>
@@ -4830,51 +4832,146 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D185" s="46">
-        <v>5500</v>
+        <v>202</v>
+      </c>
+      <c r="D185" s="12">
+        <v>20000</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>207</v>
       </c>
     </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D186" s="12">
+        <v>32200</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D187" s="12">
+        <v>31500</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D188" s="12">
+        <v>27500</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D189" s="12">
+        <v>27500</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D190" s="12">
+        <v>18000</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A2:E6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A106:E106"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4904,10 +5001,10 @@
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="85"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4943,13 +5040,13 @@
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
